--- a/Linux/程序员的自我修养/SymTable.xlsx
+++ b/Linux/程序员的自我修养/SymTable.xlsx
@@ -43,7 +43,7 @@
     <t>global_uninit_var</t>
   </si>
   <si>
-    <t>func1 info</t>
+    <t xml:space="preserve">func1 </t>
   </si>
   <si>
     <t>[2|1]</t>
@@ -67,11 +67,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,19 +81,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF92D050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -102,6 +95,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,38 +115,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,6 +131,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -176,6 +155,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -184,6 +170,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -192,6 +194,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -200,44 +224,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,7 +239,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,25 +353,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,151 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,16 +504,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,36 +548,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -583,6 +555,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,127 +587,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -729,27 +716,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -761,43 +751,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1124,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="O8:V70"/>
+  <dimension ref="K8:V70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="Z29" sqref="Z29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O68" sqref="O68:V70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="20" customHeight="true"/>
@@ -1136,464 +1108,475 @@
   </cols>
   <sheetData>
     <row r="8" customHeight="true" spans="15:22">
-      <c r="O8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="11" t="s">
+      <c r="O8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="T8" s="12">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2">
+      <c r="T8" s="5">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>65521</v>
       </c>
-      <c r="V8" s="10"/>
+      <c r="V8" s="9"/>
     </row>
     <row r="9" customHeight="true" spans="15:22">
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
     </row>
     <row r="10" customHeight="true" spans="15:22">
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="10"/>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="9"/>
     </row>
     <row r="14" customHeight="true" spans="15:22">
-      <c r="O14" s="2"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="11" t="s">
+      <c r="O14" s="3"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="T14" s="12">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
+      <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>1</v>
       </c>
-      <c r="V14" s="10"/>
+      <c r="V14" s="9"/>
     </row>
     <row r="15" customHeight="true" spans="15:22">
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
     </row>
     <row r="16" customHeight="true" spans="15:22">
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="10"/>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="9"/>
     </row>
     <row r="20" customHeight="true" spans="15:22">
-      <c r="O20" s="2" t="s">
+      <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="11" t="s">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="T20" s="12">
-        <v>0</v>
-      </c>
-      <c r="U20" s="2">
+      <c r="T20" s="5">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>3</v>
       </c>
-      <c r="V20" s="10"/>
+      <c r="V20" s="9"/>
     </row>
     <row r="21" customHeight="true" spans="15:22">
-      <c r="O21" s="4">
+      <c r="O21" s="5">
         <v>4</v>
       </c>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
     </row>
     <row r="22" customHeight="true" spans="15:22">
-      <c r="O22" s="2">
+      <c r="O22" s="3">
         <v>4</v>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="10"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="9"/>
     </row>
     <row r="26" customHeight="true" spans="15:22">
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="11" t="s">
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="T26" s="12">
-        <v>0</v>
-      </c>
-      <c r="U26" s="2">
+      <c r="T26" s="5">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>4</v>
       </c>
-      <c r="V26" s="10"/>
-    </row>
-    <row r="27" customHeight="true" spans="15:22">
-      <c r="O27" s="4">
-        <v>0</v>
-      </c>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
+      <c r="V26" s="9"/>
+    </row>
+    <row r="27" customHeight="true" spans="11:22">
+      <c r="K27" s="2"/>
+      <c r="O27" s="5">
+        <v>0</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
     </row>
     <row r="28" customHeight="true" spans="15:22">
-      <c r="O28" s="2">
+      <c r="O28" s="3">
         <v>4</v>
       </c>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="10"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="9"/>
+    </row>
+    <row r="31" customHeight="true" spans="15:22">
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
     </row>
     <row r="32" customHeight="true" spans="15:22">
-      <c r="O32" s="5" t="s">
+      <c r="O32" s="6" t="s">
         <v>6</v>
       </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="14" t="s">
+      <c r="R32" s="6"/>
+      <c r="S32" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="T32" s="15">
-        <v>0</v>
-      </c>
-      <c r="U32" s="16">
+      <c r="T32" s="6">
+        <v>0</v>
+      </c>
+      <c r="U32" s="7">
         <v>3</v>
       </c>
-      <c r="V32" s="13"/>
+      <c r="V32" s="12"/>
     </row>
     <row r="33" customHeight="true" spans="15:22">
-      <c r="O33" s="7">
-        <v>0</v>
-      </c>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
+      <c r="O33" s="6">
+        <v>0</v>
+      </c>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
     </row>
     <row r="34" customHeight="true" spans="15:22">
-      <c r="O34" s="8">
+      <c r="O34" s="7">
         <v>4</v>
       </c>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="17"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="12"/>
     </row>
     <row r="38" customHeight="true" spans="15:22">
-      <c r="O38" s="2" t="s">
+      <c r="O38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="11" t="s">
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="T38" s="12">
-        <v>0</v>
-      </c>
-      <c r="U38" s="2">
+      <c r="T38" s="5">
+        <v>0</v>
+      </c>
+      <c r="U38" s="3">
         <v>65522</v>
       </c>
-      <c r="V38" s="10"/>
+      <c r="V38" s="9"/>
     </row>
     <row r="39" customHeight="true" spans="15:22">
-      <c r="O39" s="4">
+      <c r="O39" s="5">
         <v>4</v>
       </c>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
     </row>
     <row r="40" customHeight="true" spans="15:22">
-      <c r="O40" s="2">
+      <c r="O40" s="3">
         <v>4</v>
       </c>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="10"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="9"/>
     </row>
     <row r="44" customHeight="true" spans="15:22">
-      <c r="O44" s="2" t="s">
+      <c r="O44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="11" t="s">
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="T44" s="12">
-        <v>0</v>
-      </c>
-      <c r="U44" s="2">
+      <c r="T44" s="5">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
         <v>1</v>
       </c>
-      <c r="V44" s="10"/>
+      <c r="V44" s="9"/>
     </row>
     <row r="45" customHeight="true" spans="15:22">
-      <c r="O45" s="4">
-        <v>0</v>
-      </c>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
+      <c r="O45" s="5">
+        <v>0</v>
+      </c>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
     </row>
     <row r="46" customHeight="true" spans="15:22">
-      <c r="O46" s="2">
+      <c r="O46" s="3">
         <v>36</v>
       </c>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="10"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="9"/>
     </row>
     <row r="50" customHeight="true" spans="15:22">
-      <c r="O50" s="2" t="s">
+      <c r="O50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="11" t="s">
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="T50" s="12">
-        <v>0</v>
-      </c>
-      <c r="U50" s="2">
+      <c r="T50" s="5">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
         <v>65522</v>
       </c>
-      <c r="V50" s="10"/>
+      <c r="V50" s="9"/>
     </row>
     <row r="51" customHeight="true" spans="15:22">
-      <c r="O51" s="4">
+      <c r="O51" s="5">
         <v>4</v>
       </c>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
     </row>
     <row r="52" customHeight="true" spans="15:22">
-      <c r="O52" s="2">
+      <c r="O52" s="3">
         <v>4</v>
       </c>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="10"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="9"/>
     </row>
     <row r="56" customHeight="true" spans="15:22">
-      <c r="O56" s="2" t="s">
+      <c r="O56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="11" t="s">
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T56" s="12">
-        <v>0</v>
-      </c>
-      <c r="U56" s="2">
-        <v>0</v>
-      </c>
-      <c r="V56" s="10"/>
+      <c r="T56" s="5">
+        <v>0</v>
+      </c>
+      <c r="U56" s="3">
+        <v>0</v>
+      </c>
+      <c r="V56" s="9"/>
     </row>
     <row r="57" customHeight="true" spans="15:22">
-      <c r="O57" s="4">
-        <v>0</v>
-      </c>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
+      <c r="O57" s="5">
+        <v>0</v>
+      </c>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
     </row>
     <row r="58" customHeight="true" spans="15:22">
-      <c r="O58" s="2">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="10"/>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="9"/>
     </row>
     <row r="62" customHeight="true" spans="15:22">
-      <c r="O62" s="2" t="s">
+      <c r="O62" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="11" t="s">
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T62" s="12">
-        <v>0</v>
-      </c>
-      <c r="U62" s="2">
-        <v>0</v>
-      </c>
-      <c r="V62" s="10"/>
+      <c r="T62" s="5">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="9"/>
     </row>
     <row r="63" customHeight="true" spans="15:22">
-      <c r="O63" s="4">
-        <v>0</v>
-      </c>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
+      <c r="O63" s="5">
+        <v>0</v>
+      </c>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
     </row>
     <row r="64" customHeight="true" spans="15:22">
-      <c r="O64" s="2">
-        <v>0</v>
-      </c>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="10"/>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="9"/>
     </row>
     <row r="68" customHeight="true" spans="15:22">
-      <c r="O68" s="2" t="s">
+      <c r="O68" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="11" t="s">
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="T68" s="12">
-        <v>0</v>
-      </c>
-      <c r="U68" s="2">
+      <c r="T68" s="5">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
         <v>1</v>
       </c>
-      <c r="V68" s="10"/>
+      <c r="V68" s="9"/>
     </row>
     <row r="69" customHeight="true" spans="15:22">
-      <c r="O69" s="4">
+      <c r="O69" s="5">
         <v>36</v>
       </c>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
     </row>
     <row r="70" customHeight="true" spans="15:22">
-      <c r="O70" s="2">
+      <c r="O70" s="3">
         <v>53</v>
       </c>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-      <c r="V70" s="10"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="44">
